--- a/Recent_Matches_with_API_Name.xlsx
+++ b/Recent_Matches_with_API_Name.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>api_name</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>final_api</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -556,6 +561,11 @@
           <t>gloucestershire-vs-essex-south-group</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/gloucestershire-vs-essex-south-group-1410371/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -609,6 +619,11 @@
           <t>hampshire-vs-surrey-south-group</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/hampshire-vs-surrey-south-group-1410372/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -666,6 +681,11 @@
           <t>lancashire-vs-durham-north-group</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/lancashire-vs-durham-north-group-1410373/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -723,6 +743,11 @@
           <t>northamptonshire-vs-derbyshire-north-group</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-derbyshire-north-group-1410374/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -776,6 +801,11 @@
           <t>yorkshire-vs-worcestershire-north-group</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/yorkshire-vs-worcestershire-north-group-1410375/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -829,6 +859,11 @@
           <t>durham-vs-birmingham-bears-north-group</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/durham-vs-birmingham-bears-north-group-1410376/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -882,6 +917,11 @@
           <t>glamorgan-vs-surrey-south-group</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/glamorgan-vs-surrey-south-group-1410377/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -939,6 +979,11 @@
           <t>middlesex-vs-kent-south-group</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/middlesex-vs-kent-south-group-1410378/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -992,6 +1037,11 @@
           <t>nottinghamshire-vs-northamptonshire-north-group</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/nottinghamshire-vs-northamptonshire-north-group-1410379/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1049,6 +1099,11 @@
           <t>somerset-vs-essex-south-group</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/somerset-vs-essex-south-group-1410380/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1106,6 +1161,11 @@
           <t>sussex-vs-gloucestershire-south-group</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-gloucestershire-south-group-1410381/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1163,6 +1223,11 @@
           <t>worcestershire-vs-lancashire-north-group</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/worcestershire-vs-lancashire-north-group-1410382/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1216,6 +1281,11 @@
           <t>birmingham-bears-vs-nottinghamshire-north-group</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-nottinghamshire-north-group-1410383/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1269,6 +1339,11 @@
           <t>derbyshire-vs-leicestershire-north-group</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/derbyshire-vs-leicestershire-north-group-1410384/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1326,6 +1401,11 @@
           <t>essex-vs-middlesex-south-group</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/essex-vs-middlesex-south-group-1410385/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1379,6 +1459,11 @@
           <t>glamorgan-vs-sussex-south-group</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/glamorgan-vs-sussex-south-group-1410386/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1432,6 +1517,11 @@
           <t>hampshire-vs-kent-south-group</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/hampshire-vs-kent-south-group-1410387/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1489,6 +1579,11 @@
           <t>lancashire-vs-derbyshire-north-group</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/lancashire-vs-derbyshire-north-group-1410388/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1546,6 +1641,11 @@
           <t>northamptonshire-vs-yorkshire-north-group</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-yorkshire-north-group-1410389/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1599,6 +1699,11 @@
           <t>surrey-vs-somerset-south-group</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-somerset-south-group-1410390/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1656,6 +1761,11 @@
           <t>middlesex-vs-glamorgan-south-group</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/middlesex-vs-glamorgan-south-group-1410391/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1709,6 +1819,11 @@
           <t>nottinghamshire-vs-worcestershire-north-group</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/nottinghamshire-vs-worcestershire-north-group-1410392/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1766,6 +1881,11 @@
           <t>derbyshire-vs-nottinghamshire-north-group</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/derbyshire-vs-nottinghamshire-north-group-1410393/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1823,6 +1943,11 @@
           <t>essex-vs-glamorgan-south-group</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/essex-vs-glamorgan-south-group-1410394/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1880,6 +2005,11 @@
           <t>gloucestershire-vs-hampshire-south-group</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/gloucestershire-vs-hampshire-south-group-1410395/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1933,6 +2063,11 @@
           <t>kent-vs-somerset-south-group</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/kent-vs-somerset-south-group-1410396/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1990,6 +2125,11 @@
           <t>lancashire-vs-birmingham-bears-north-group</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/lancashire-vs-birmingham-bears-north-group-1410397/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2043,6 +2183,11 @@
           <t>leicestershire-vs-durham-north-group</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/leicestershire-vs-durham-north-group-1410398/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2100,6 +2245,11 @@
           <t>northamptonshire-vs-worcestershire-north-group</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-worcestershire-north-group-1410399/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2153,6 +2303,11 @@
           <t>surrey-vs-sussex-south-group</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-sussex-south-group-1410400/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2206,6 +2361,11 @@
           <t>birmingham-bears-vs-durham-north-group</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-durham-north-group-1410401/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2263,6 +2423,11 @@
           <t>gloucestershire-vs-sussex-south-group</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/gloucestershire-vs-sussex-south-group-1410402/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2316,6 +2481,11 @@
           <t>kent-vs-middlesex-south-group</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/kent-vs-middlesex-south-group-1410403/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2369,6 +2539,11 @@
           <t>leicestershire-vs-worcestershire-north-group</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/leicestershire-vs-worcestershire-north-group-1410404/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2422,6 +2597,11 @@
           <t>nottinghamshire-vs-lancashire-north-group</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/nottinghamshire-vs-lancashire-north-group-1410405/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2479,6 +2659,11 @@
           <t>somerset-vs-hampshire-south-group</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/somerset-vs-hampshire-south-group-1410406/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2532,6 +2717,11 @@
           <t>yorkshire-vs-derbyshire-north-group</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/yorkshire-vs-derbyshire-north-group-1410407/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2589,6 +2779,11 @@
           <t>middlesex-vs-somerset-south-group</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/middlesex-vs-somerset-south-group-1410408/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2642,6 +2837,11 @@
           <t>durham-vs-leicestershire-north-group</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/durham-vs-leicestershire-north-group-1410409/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2695,6 +2895,11 @@
           <t>glamorgan-vs-hampshire-south-group</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/glamorgan-vs-hampshire-south-group-1410410/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2752,6 +2957,11 @@
           <t>middlesex-vs-essex-south-group</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/middlesex-vs-essex-south-group-1410411/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2809,6 +3019,11 @@
           <t>derbyshire-vs-northamptonshire-north-group</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/derbyshire-vs-northamptonshire-north-group-1410412/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2866,6 +3081,11 @@
           <t>essex-vs-sussex-south-group</t>
         </is>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/essex-vs-sussex-south-group-1410413/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2919,6 +3139,11 @@
           <t>hampshire-vs-middlesex-south-group</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/hampshire-vs-middlesex-south-group-1410414/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2972,6 +3197,11 @@
           <t>leicestershire-vs-lancashire-north-group</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/leicestershire-vs-lancashire-north-group-1410415/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3029,6 +3259,11 @@
           <t>somerset-vs-kent-south-group</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/somerset-vs-kent-south-group-1410416/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3082,6 +3317,11 @@
           <t>surrey-vs-gloucestershire-south-group</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-gloucestershire-south-group-1410417/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3135,6 +3375,11 @@
           <t>birmingham-bears-vs-yorkshire-north-group</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-yorkshire-north-group-1410418/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3192,6 +3437,11 @@
           <t>worcestershire-vs-nottinghamshire-north-group</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/worcestershire-vs-nottinghamshire-north-group-1410419/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3245,6 +3495,11 @@
           <t>nottinghamshire-vs-durham-north-group</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/nottinghamshire-vs-durham-north-group-1410420/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3302,6 +3557,11 @@
           <t>sussex-vs-surrey-south-group</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-surrey-south-group-1410421/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3359,6 +3619,11 @@
           <t>derbyshire-vs-birmingham-bears-north-group</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/derbyshire-vs-birmingham-bears-north-group-1410422/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3412,6 +3677,11 @@
           <t>durham-vs-lancashire-north-group</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/durham-vs-lancashire-north-group-1410423/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3465,6 +3735,11 @@
           <t>kent-vs-gloucestershire-south-group</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/kent-vs-gloucestershire-south-group-1410424/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3522,6 +3797,11 @@
           <t>somerset-vs-glamorgan-south-group</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/somerset-vs-glamorgan-south-group-1410425/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3579,6 +3859,11 @@
           <t>worcestershire-vs-northamptonshire-north-group</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/worcestershire-vs-northamptonshire-north-group-1410426/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3632,6 +3917,11 @@
           <t>yorkshire-vs-leicestershire-north-group</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/yorkshire-vs-leicestershire-north-group-1410427/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3689,6 +3979,11 @@
           <t>essex-vs-hampshire-south-group</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/essex-vs-hampshire-south-group-1410428/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3742,6 +4037,11 @@
           <t>glamorgan-vs-gloucestershire-south-group</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/glamorgan-vs-gloucestershire-south-group-1410429/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3799,6 +4099,11 @@
           <t>middlesex-vs-surrey-south-group</t>
         </is>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/middlesex-vs-surrey-south-group-1410430/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3856,6 +4161,11 @@
           <t>sussex-vs-kent-south-group</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-kent-south-group-1410431/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3909,6 +4219,11 @@
           <t>birmingham-bears-vs-northamptonshire-north-group</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-northamptonshire-north-group-1410432/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3962,6 +4277,11 @@
           <t>yorkshire-vs-lancashire-north-group</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/yorkshire-vs-lancashire-north-group-1410433/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4015,6 +4335,11 @@
           <t>durham-vs-yorkshire-north-group</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/durham-vs-yorkshire-north-group-1410434/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4072,6 +4397,11 @@
           <t>gloucestershire-vs-somerset-south-group</t>
         </is>
       </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/gloucestershire-vs-somerset-south-group-1410435/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4125,6 +4455,11 @@
           <t>hampshire-vs-sussex-south-group</t>
         </is>
       </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/hampshire-vs-sussex-south-group-1410436/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4178,6 +4513,11 @@
           <t>kent-vs-essex-south-group</t>
         </is>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/kent-vs-essex-south-group-1410437/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4235,6 +4575,11 @@
           <t>northamptonshire-vs-leicestershire-north-group</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-leicestershire-north-group-1410438/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4288,6 +4633,11 @@
           <t>nottinghamshire-vs-derbyshire-north-group</t>
         </is>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/nottinghamshire-vs-derbyshire-north-group-1410439/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4341,6 +4691,11 @@
           <t>surrey-vs-glamorgan-south-group</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-glamorgan-south-group-1410440/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4398,6 +4753,11 @@
           <t>worcestershire-vs-birmingham-bears-north-group</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/worcestershire-vs-birmingham-bears-north-group-1410441/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4451,6 +4811,11 @@
           <t>durham-vs-worcestershire-north-group</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/durham-vs-worcestershire-north-group-1410442/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4508,6 +4873,11 @@
           <t>essex-vs-somerset-south-group</t>
         </is>
       </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/essex-vs-somerset-south-group-1410443/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4561,6 +4931,11 @@
           <t>gloucestershire-vs-kent-south-group</t>
         </is>
       </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/gloucestershire-vs-kent-south-group-1410444/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4618,6 +4993,11 @@
           <t>northamptonshire-vs-lancashire-north-group</t>
         </is>
       </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-lancashire-north-group-1410445/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4671,6 +5051,11 @@
           <t>nottinghamshire-vs-leicestershire-north-group</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/nottinghamshire-vs-leicestershire-north-group-1410446/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4724,6 +5109,11 @@
           <t>surrey-vs-middlesex-south-group</t>
         </is>
       </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-middlesex-south-group-1410447/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4781,6 +5171,11 @@
           <t>sussex-vs-glamorgan-south-group</t>
         </is>
       </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-glamorgan-south-group-1410448/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4834,6 +5229,11 @@
           <t>yorkshire-vs-birmingham-bears-north-group</t>
         </is>
       </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/yorkshire-vs-birmingham-bears-north-group-1410449/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4887,6 +5287,11 @@
           <t>leicestershire-vs-derbyshire-north-group</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/leicestershire-vs-derbyshire-north-group-1410450/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4944,6 +5349,11 @@
           <t>middlesex-vs-hampshire-south-group</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/middlesex-vs-hampshire-south-group-1410451/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4997,6 +5407,11 @@
           <t>derbyshire-vs-yorkshire-north-group</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/derbyshire-vs-yorkshire-north-group-1410452/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5050,6 +5465,11 @@
           <t>glamorgan-vs-essex-south-group</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/glamorgan-vs-essex-south-group-1410453/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5107,6 +5527,11 @@
           <t>lancashire-vs-worcestershire-north-group</t>
         </is>
       </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/lancashire-vs-worcestershire-north-group-1410454/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5164,6 +5589,11 @@
           <t>northamptonshire-vs-durham-north-group</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-durham-north-group-1410455/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5217,6 +5647,11 @@
           <t>nottinghamshire-vs-birmingham-bears-north-group</t>
         </is>
       </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/nottinghamshire-vs-birmingham-bears-north-group-1410456/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5274,6 +5709,11 @@
           <t>somerset-vs-gloucestershire-south-group</t>
         </is>
       </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/somerset-vs-gloucestershire-south-group-1410457/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5327,6 +5767,11 @@
           <t>surrey-vs-kent-south-group</t>
         </is>
       </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-kent-south-group-1410458/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5384,6 +5829,11 @@
           <t>sussex-vs-hampshire-south-group</t>
         </is>
       </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-hampshire-south-group-1410459/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5441,6 +5891,11 @@
           <t>derbyshire-vs-lancashire-north-group</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/derbyshire-vs-lancashire-north-group-1410460/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5498,6 +5953,11 @@
           <t>essex-vs-kent-south-group</t>
         </is>
       </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/essex-vs-kent-south-group-1410461/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5551,6 +6011,11 @@
           <t>gloucestershire-vs-middlesex-south-group</t>
         </is>
       </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/gloucestershire-vs-middlesex-south-group-1410462/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5608,6 +6073,11 @@
           <t>worcestershire-vs-leicestershire-north-group</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/worcestershire-vs-leicestershire-north-group-1410463/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5661,6 +6131,11 @@
           <t>yorkshire-vs-durham-north-group</t>
         </is>
       </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/yorkshire-vs-durham-north-group-1410464/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5714,6 +6189,11 @@
           <t>durham-vs-nottinghamshire-north-group</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/durham-vs-nottinghamshire-north-group-1410465/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5767,6 +6247,11 @@
           <t>glamorgan-vs-middlesex-south-group</t>
         </is>
       </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/glamorgan-vs-middlesex-south-group-1410466/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5820,6 +6305,11 @@
           <t>hampshire-vs-gloucestershire-south-group</t>
         </is>
       </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/hampshire-vs-gloucestershire-south-group-1410467/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5873,6 +6363,11 @@
           <t>kent-vs-sussex-south-group</t>
         </is>
       </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/kent-vs-sussex-south-group-1410468/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5930,6 +6425,11 @@
           <t>lancashire-vs-yorkshire-north-group</t>
         </is>
       </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/lancashire-vs-yorkshire-north-group-1410469/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5983,6 +6483,11 @@
           <t>leicestershire-vs-northamptonshire-north-group</t>
         </is>
       </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/leicestershire-vs-northamptonshire-north-group-1410470/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6040,6 +6545,11 @@
           <t>somerset-vs-surrey-south-group</t>
         </is>
       </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/somerset-vs-surrey-south-group-1410471/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6093,6 +6603,11 @@
           <t>birmingham-bears-vs-worcestershire-north-group</t>
         </is>
       </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-worcestershire-north-group-1410472/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6150,6 +6665,11 @@
           <t>sussex-vs-essex-south-group</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-essex-south-group-1410473/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6203,6 +6723,11 @@
           <t>durham-vs-northamptonshire-north-group</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/durham-vs-northamptonshire-north-group-1410474/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6260,6 +6785,11 @@
           <t>essex-vs-surrey-south-group</t>
         </is>
       </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/essex-vs-surrey-south-group-1410475/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6313,6 +6843,11 @@
           <t>gloucestershire-vs-glamorgan-south-group</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/gloucestershire-vs-glamorgan-south-group-1410476/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6366,6 +6901,11 @@
           <t>hampshire-vs-somerset-south-group</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/hampshire-vs-somerset-south-group-1410477/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6419,6 +6959,11 @@
           <t>leicestershire-vs-nottinghamshire-north-group</t>
         </is>
       </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/leicestershire-vs-nottinghamshire-north-group-1410478/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6472,6 +7017,11 @@
           <t>birmingham-bears-vs-derbyshire-north-group</t>
         </is>
       </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-derbyshire-north-group-1410479/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6529,6 +7079,11 @@
           <t>worcestershire-vs-yorkshire-north-group</t>
         </is>
       </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/worcestershire-vs-yorkshire-north-group-1410480/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6582,6 +7137,11 @@
           <t>kent-vs-glamorgan-south-group</t>
         </is>
       </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/kent-vs-glamorgan-south-group-1410481/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6639,6 +7199,11 @@
           <t>lancashire-vs-nottinghamshire-north-group</t>
         </is>
       </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/lancashire-vs-nottinghamshire-north-group-1410482/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6696,6 +7261,11 @@
           <t>middlesex-vs-gloucestershire-south-group</t>
         </is>
       </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/middlesex-vs-gloucestershire-south-group-1410483/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6753,6 +7323,11 @@
           <t>northamptonshire-vs-birmingham-bears-north-group</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-birmingham-bears-north-group-1410484/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6810,6 +7385,11 @@
           <t>somerset-vs-sussex-south-group</t>
         </is>
       </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/somerset-vs-sussex-south-group-1410485/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6863,6 +7443,11 @@
           <t>surrey-vs-hampshire-south-group</t>
         </is>
       </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-hampshire-south-group-1410486/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6920,6 +7505,11 @@
           <t>worcestershire-vs-derbyshire-north-group</t>
         </is>
       </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/worcestershire-vs-derbyshire-north-group-1410487/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6977,6 +7567,11 @@
           <t>derbyshire-vs-durham-north-group</t>
         </is>
       </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/derbyshire-vs-durham-north-group-1410488/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7030,6 +7625,11 @@
           <t>glamorgan-vs-somerset-south-group</t>
         </is>
       </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/glamorgan-vs-somerset-south-group-1410489/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7083,6 +7683,11 @@
           <t>hampshire-vs-essex-south-group</t>
         </is>
       </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/hampshire-vs-essex-south-group-1410490/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7136,6 +7741,11 @@
           <t>kent-vs-surrey-south-group</t>
         </is>
       </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/kent-vs-surrey-south-group-1410491/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7193,6 +7803,11 @@
           <t>lancashire-vs-northamptonshire-north-group</t>
         </is>
       </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/lancashire-vs-northamptonshire-north-group-1410492/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7250,6 +7865,11 @@
           <t>sussex-vs-middlesex-south-group</t>
         </is>
       </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-middlesex-south-group-1410493/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7303,6 +7923,11 @@
           <t>birmingham-bears-vs-leicestershire-north-group</t>
         </is>
       </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-leicestershire-north-group-1410494/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7356,6 +7981,11 @@
           <t>yorkshire-vs-nottinghamshire-north-group</t>
         </is>
       </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/yorkshire-vs-nottinghamshire-north-group-1410495/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7409,6 +8039,11 @@
           <t>surrey-vs-durham-1st-quarter-final</t>
         </is>
       </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/surrey-vs-durham-1st-quarter-final-1410496/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7466,6 +8101,11 @@
           <t>sussex-vs-lancashire-2nd-quarter-final</t>
         </is>
       </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/sussex-vs-lancashire-2nd-quarter-final-1410497/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7523,6 +8163,11 @@
           <t>northamptonshire-vs-somerset-3rd-quarter-final</t>
         </is>
       </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/northamptonshire-vs-somerset-3rd-quarter-final-1410498/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7576,6 +8221,11 @@
           <t>birmingham-bears-vs-gloucestershire-4th-quarter-final</t>
         </is>
       </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/birmingham-bears-vs-gloucestershire-4th-quarter-final-1410499/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7629,6 +8279,11 @@
           <t>tba-vs-tba-1st-semi-final</t>
         </is>
       </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/tba-vs-tba-1st-semi-final-1410500/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7682,6 +8337,11 @@
           <t>tba-vs-tba-2nd-semi-final</t>
         </is>
       </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/tba-vs-tba-2nd-semi-final-1410501/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7735,6 +8395,11 @@
           <t>tba-vs-tba-final</t>
         </is>
       </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/tba-vs-tba-final-1410502/ball-by-ball-commentary</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7786,6 +8451,11 @@
       <c r="M134" t="inlineStr">
         <is>
           <t>leicestershire-vs-yorkshire-north-group</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>https://www.espncricinfo.com/series/t20-blast-2024-1410370/leicestershire-vs-yorkshire-north-group-1423080/ball-by-ball-commentary</t>
         </is>
       </c>
     </row>
